--- a/biology/Médecine/Sillon_du_sinus_sigmoïde/Sillon_du_sinus_sigmoïde.xlsx
+++ b/biology/Médecine/Sillon_du_sinus_sigmoïde/Sillon_du_sinus_sigmoïde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sillon_du_sinus_sigmo%C3%AFde</t>
+          <t>Sillon_du_sinus_sigmoïde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sillon du sinus sigmoïde est un sillon osseux de la base interne du crâne situé dans la fosse crânienne postérieure.
 Il héberge le sinus transverse de la dure-mère.
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sillon_du_sinus_sigmo%C3%AFde</t>
+          <t>Sillon_du_sinus_sigmoïde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,7 +528,9 @@
           <t>Segment occipital</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sillon du sinus sigmoïde de l'os occipital  est un segment courbe le long du bord externe de la partie basilaire de l'os occipital et au-dessus de la base du processus jugulaire.
 Il se poursuit par le segment temporal.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sillon_du_sinus_sigmo%C3%AFde</t>
+          <t>Sillon_du_sinus_sigmoïde</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Segment temporal</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sillon du sinus sigmoïde de l'os temporal se situe à la base de la face postérieure de la partie pétreuse de l'os temporal.
 Dans lu sillon s'ouvre l'ouverture endocrânienne du foramen mastoïdien donnant passage à une veine émissaire.
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sillon_du_sinus_sigmo%C3%AFde</t>
+          <t>Sillon_du_sinus_sigmoïde</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Segment pariétal</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sillon du sinus sigmoïde de l'os pariétal est un court segment situé à l'angle postérieur et inférieur de la face endocrânienne de l'os pariétal.
 </t>
